--- a/i_codebooks/D3_source_population.xlsx
+++ b/i_codebooks/D3_source_population.xlsx
@@ -142,9 +142,6 @@
     <t>exit_cohort</t>
   </si>
   <si>
-    <t>treated</t>
-  </si>
-  <si>
     <t>1 = rivaroxaban
 2 = apixaban
 3 = both</t>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>start of an episode of treatment or of a perid of risk for hemorrage (after censopring due to hemorrage)</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -815,15 +815,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -857,10 +857,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,12 +932,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -945,10 +945,10 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="207" customHeight="1" x14ac:dyDescent="0.3">
@@ -956,21 +956,21 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1038,6 +1038,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1282,28 +1303,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAC727D-6270-488A-9B63-C6970CF6C0A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1320,29 +1345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/i_codebooks/D3_source_population.xlsx
+++ b/i_codebooks/D3_source_population.xlsx
@@ -857,10 +857,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:D7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,27 +1038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1303,32 +1282,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAC727D-6270-488A-9B63-C6970CF6C0A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1345,4 +1320,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>